--- a/Assets/StreamingAssets/Table/GalCon@.xlsx
+++ b/Assets/StreamingAssets/Table/GalCon@.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76333CA1-88BE-4D5F-A29A-0B1F2DC2A8D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33EF36-027B-40C0-B8DA-A8C80AA0B5C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1740" windowWidth="17385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,54 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Shikamaru</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,33 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>哈，稍微有些中忍的样子了啊！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,21 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Sasuke</t>
   </si>
   <si>
@@ -365,27 +255,6 @@
   <si>
     <t>？！</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>（嗅嗅）</t>
@@ -760,8 +629,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -777,16 +646,16 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -810,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -837,16 +706,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -866,17 +735,17 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -896,17 +765,17 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -926,17 +795,17 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+      <c r="A6" s="1">
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -956,17 +825,17 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
+      <c r="A7" s="1">
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -986,17 +855,17 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
+      <c r="A8" s="1">
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1016,17 +885,17 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" s="1">
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1046,17 +915,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="1">
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1076,17 +945,17 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="1">
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1106,17 +975,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="1">
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1136,17 +1005,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="1">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1166,17 +1035,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="1">
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1196,17 +1065,17 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="1">
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1226,17 +1095,17 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="1">
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1256,17 +1125,17 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="1">
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1286,17 +1155,17 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="1">
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1316,17 +1185,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="1">
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1346,17 +1215,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="1">
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1376,17 +1245,17 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="1">
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1399,17 +1268,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="1">
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1423,17 +1292,17 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="1">
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1447,17 +1316,17 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="1">
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1471,17 +1340,17 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="1">
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1495,17 +1364,17 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>61</v>
+      <c r="A26" s="1">
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1521,17 +1390,17 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>62</v>
+      <c r="A27" s="1">
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1547,17 +1416,17 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>63</v>
+      <c r="A28" s="1">
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1573,17 +1442,17 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>64</v>
+      <c r="A29" s="1">
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1599,17 +1468,17 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
+      <c r="A30" s="1">
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1625,17 +1494,17 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
+      <c r="A31" s="1">
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1651,17 +1520,17 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>67</v>
+      <c r="A32" s="1">
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1677,17 +1546,17 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
+      <c r="A33" s="1">
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1703,17 +1572,17 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
+      <c r="A34" s="1">
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1729,17 +1598,17 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
+      <c r="A35" s="1">
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1755,17 +1624,17 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
+      <c r="A36" s="1">
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1781,143 +1650,143 @@
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>76</v>
+      <c r="A37" s="1">
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>77</v>
+      <c r="A38" s="1">
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
+      <c r="A39" s="1">
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>95</v>
+      <c r="A40" s="1">
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>96</v>
+      <c r="A41" s="1">
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
+      <c r="A42" s="1">
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>98</v>
+      <c r="A43" s="1">
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
